--- a/data/pca/factorExposure/factorExposure_2016-02-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.009875418591766893</v>
+        <v>0.01433276858174556</v>
       </c>
       <c r="C2">
-        <v>0.05833746065886086</v>
+        <v>0.04561334113506121</v>
       </c>
       <c r="D2">
-        <v>0.07271247283906053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.08725803162702173</v>
+      </c>
+      <c r="E2">
+        <v>0.1208931290938911</v>
+      </c>
+      <c r="F2">
+        <v>0.03447491282867036</v>
+      </c>
+      <c r="G2">
+        <v>0.04738674261829445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02721455265312247</v>
+        <v>0.01645337651202356</v>
       </c>
       <c r="C3">
-        <v>0.1104571473144519</v>
+        <v>0.05599722214077795</v>
       </c>
       <c r="D3">
-        <v>0.07633169805264696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07502402583348199</v>
+      </c>
+      <c r="E3">
+        <v>0.1128346314168693</v>
+      </c>
+      <c r="F3">
+        <v>-0.04213083074825427</v>
+      </c>
+      <c r="G3">
+        <v>0.09605749972579546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06027508626946812</v>
+        <v>0.06075819696469796</v>
       </c>
       <c r="C4">
-        <v>0.06649560343017571</v>
+        <v>0.06661238396533675</v>
       </c>
       <c r="D4">
-        <v>0.05818500274376609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.09164804634405505</v>
+      </c>
+      <c r="E4">
+        <v>0.1011515041654872</v>
+      </c>
+      <c r="F4">
+        <v>-0.03129676920148898</v>
+      </c>
+      <c r="G4">
+        <v>-0.03902907137808179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04392146502728456</v>
+        <v>0.04063864570179664</v>
       </c>
       <c r="C6">
-        <v>0.04349546792323516</v>
+        <v>0.03099877799112556</v>
       </c>
       <c r="D6">
-        <v>0.06068666277472232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0916213147835952</v>
+      </c>
+      <c r="E6">
+        <v>0.08657421826528006</v>
+      </c>
+      <c r="F6">
+        <v>-0.02019718186049735</v>
+      </c>
+      <c r="G6">
+        <v>0.001600474290503753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02985223909860414</v>
+        <v>0.02212235644167793</v>
       </c>
       <c r="C7">
-        <v>0.04405139059066596</v>
+        <v>0.04120380682404705</v>
       </c>
       <c r="D7">
-        <v>0.04396772144069092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.06950685487731893</v>
+      </c>
+      <c r="E7">
+        <v>0.07449082247549682</v>
+      </c>
+      <c r="F7">
+        <v>-0.02347940091267175</v>
+      </c>
+      <c r="G7">
+        <v>-0.04905520358749736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01050770761513123</v>
+        <v>0.008453623168582863</v>
       </c>
       <c r="C8">
-        <v>0.05342246360549642</v>
+        <v>0.04179691607150638</v>
       </c>
       <c r="D8">
-        <v>0.04620645803826603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.06040816443857261</v>
+      </c>
+      <c r="E8">
+        <v>0.0580190670190183</v>
+      </c>
+      <c r="F8">
+        <v>-0.01463152027678876</v>
+      </c>
+      <c r="G8">
+        <v>0.01663365293520284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04119661071425448</v>
+        <v>0.04365875179898245</v>
       </c>
       <c r="C9">
-        <v>0.05003274993842682</v>
+        <v>0.05405456594918045</v>
       </c>
       <c r="D9">
-        <v>0.0492023543297055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07712535931667226</v>
+      </c>
+      <c r="E9">
+        <v>0.07837717912786646</v>
+      </c>
+      <c r="F9">
+        <v>-0.007916504123644332</v>
+      </c>
+      <c r="G9">
+        <v>-0.0430491701343878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08579220357190381</v>
+        <v>0.1110504841396536</v>
       </c>
       <c r="C10">
-        <v>-0.1792902507525437</v>
+        <v>-0.194235304228404</v>
       </c>
       <c r="D10">
-        <v>0.01261655296116975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.005728926303209696</v>
+      </c>
+      <c r="E10">
+        <v>0.04191809945652224</v>
+      </c>
+      <c r="F10">
+        <v>-0.009950265972905818</v>
+      </c>
+      <c r="G10">
+        <v>-0.0324101743038703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04530737191909655</v>
+        <v>0.03753967793909743</v>
       </c>
       <c r="C11">
-        <v>0.05638681842685929</v>
+        <v>0.05056451322692225</v>
       </c>
       <c r="D11">
-        <v>0.03602770641024619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04892448282377052</v>
+      </c>
+      <c r="E11">
+        <v>0.03202794457290688</v>
+      </c>
+      <c r="F11">
+        <v>-0.01309980347478033</v>
+      </c>
+      <c r="G11">
+        <v>-0.03697914199325539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04844364022806918</v>
+        <v>0.0400179838300887</v>
       </c>
       <c r="C12">
-        <v>0.05158093103529054</v>
+        <v>0.04923467706035695</v>
       </c>
       <c r="D12">
-        <v>0.0220897892516194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04196346116216229</v>
+      </c>
+      <c r="E12">
+        <v>0.04244785469949731</v>
+      </c>
+      <c r="F12">
+        <v>-0.005855585184905339</v>
+      </c>
+      <c r="G12">
+        <v>-0.03246438927045307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01554279291827526</v>
+        <v>0.01614587713452396</v>
       </c>
       <c r="C13">
-        <v>0.05863221465810121</v>
+        <v>0.04634192385784083</v>
       </c>
       <c r="D13">
-        <v>0.0441793139605184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.08616532942709818</v>
+      </c>
+      <c r="E13">
+        <v>0.1234771061962026</v>
+      </c>
+      <c r="F13">
+        <v>-0.02420761580868486</v>
+      </c>
+      <c r="G13">
+        <v>-0.04169583346434238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01475332022052096</v>
+        <v>0.008032090989000368</v>
       </c>
       <c r="C14">
-        <v>0.03439094984293096</v>
+        <v>0.03126408662063412</v>
       </c>
       <c r="D14">
-        <v>0.02659029689743882</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.05296121331111017</v>
+      </c>
+      <c r="E14">
+        <v>0.07704159668067949</v>
+      </c>
+      <c r="F14">
+        <v>0.00466881759103377</v>
+      </c>
+      <c r="G14">
+        <v>-0.02917871728045323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0004472658237981743</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006661909592908865</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01297975763379169</v>
+      </c>
+      <c r="E15">
+        <v>0.01080864967535</v>
+      </c>
+      <c r="F15">
+        <v>0.001310716366876851</v>
+      </c>
+      <c r="G15">
+        <v>0.001332246333173577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04388014092826095</v>
+        <v>0.03670237854432944</v>
       </c>
       <c r="C16">
-        <v>0.05323047307954884</v>
+        <v>0.04837889194396962</v>
       </c>
       <c r="D16">
-        <v>0.02494114491583316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.04530124936749197</v>
+      </c>
+      <c r="E16">
+        <v>0.04605988502205886</v>
+      </c>
+      <c r="F16">
+        <v>0.004953396835327187</v>
+      </c>
+      <c r="G16">
+        <v>-0.02914283116436641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02483752567604479</v>
+        <v>0.01711211153082031</v>
       </c>
       <c r="C19">
-        <v>0.06000506570538706</v>
+        <v>0.04422873649153748</v>
       </c>
       <c r="D19">
-        <v>0.1089976883358753</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1123024622926004</v>
+      </c>
+      <c r="E19">
+        <v>0.1172931091952199</v>
+      </c>
+      <c r="F19">
+        <v>0.02150070748532886</v>
+      </c>
+      <c r="G19">
+        <v>0.007528493783734838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02175759500133171</v>
+        <v>0.01710808975935089</v>
       </c>
       <c r="C20">
-        <v>0.05354483718209617</v>
+        <v>0.04333795125893906</v>
       </c>
       <c r="D20">
-        <v>0.03781646688682146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.06469788723654496</v>
+      </c>
+      <c r="E20">
+        <v>0.09233218524459118</v>
+      </c>
+      <c r="F20">
+        <v>-0.004494194866953529</v>
+      </c>
+      <c r="G20">
+        <v>-0.01748147515983255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01853446949702361</v>
+        <v>0.0147083946232804</v>
       </c>
       <c r="C21">
-        <v>0.06082947321153057</v>
+        <v>0.04854487392659101</v>
       </c>
       <c r="D21">
-        <v>0.05304200883694016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.09001646863882451</v>
+      </c>
+      <c r="E21">
+        <v>0.1492134481203336</v>
+      </c>
+      <c r="F21">
+        <v>0.011049875164662</v>
+      </c>
+      <c r="G21">
+        <v>-0.05618065854304441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.001115066831197129</v>
+        <v>0.005067655014061349</v>
       </c>
       <c r="C22">
-        <v>0.01482330713985469</v>
+        <v>0.0311977322262589</v>
       </c>
       <c r="D22">
-        <v>0.03125830475899146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07681035151879811</v>
+      </c>
+      <c r="E22">
+        <v>0.06933519145126357</v>
+      </c>
+      <c r="F22">
+        <v>-0.07166479223744647</v>
+      </c>
+      <c r="G22">
+        <v>0.05123065270675679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.001128843019305477</v>
+        <v>0.005190748332053081</v>
       </c>
       <c r="C23">
-        <v>0.01476561159794806</v>
+        <v>0.03126471363630819</v>
       </c>
       <c r="D23">
-        <v>0.03105461910335729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0761425087075443</v>
+      </c>
+      <c r="E23">
+        <v>0.06956525487129121</v>
+      </c>
+      <c r="F23">
+        <v>-0.07170593062781966</v>
+      </c>
+      <c r="G23">
+        <v>0.05053022912390962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0411253346855423</v>
+        <v>0.03793934728657992</v>
       </c>
       <c r="C24">
-        <v>0.05509011095398515</v>
+        <v>0.05707157283538228</v>
       </c>
       <c r="D24">
-        <v>0.03203015542168623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.04772402183843891</v>
+      </c>
+      <c r="E24">
+        <v>0.04929363246631126</v>
+      </c>
+      <c r="F24">
+        <v>0.001815853072037593</v>
+      </c>
+      <c r="G24">
+        <v>-0.04368849854566972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.05089086284561431</v>
+        <v>0.0440038234991116</v>
       </c>
       <c r="C25">
-        <v>0.06003429924934602</v>
+        <v>0.0569897901123998</v>
       </c>
       <c r="D25">
-        <v>0.0276289402362959</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0441014749222298</v>
+      </c>
+      <c r="E25">
+        <v>0.04247148725247422</v>
+      </c>
+      <c r="F25">
+        <v>-0.01558766265752902</v>
+      </c>
+      <c r="G25">
+        <v>-0.04768632335935902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02257902138948214</v>
+        <v>0.01898040894777442</v>
       </c>
       <c r="C26">
-        <v>0.01973255957059511</v>
+        <v>0.01990756064074328</v>
       </c>
       <c r="D26">
-        <v>0.02821018052474266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04801149332407774</v>
+      </c>
+      <c r="E26">
+        <v>0.05821433399074932</v>
+      </c>
+      <c r="F26">
+        <v>0.009978535664820067</v>
+      </c>
+      <c r="G26">
+        <v>-0.006707641821003581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1105588496498913</v>
+        <v>0.1534469655715959</v>
       </c>
       <c r="C28">
-        <v>-0.2547027902327847</v>
+        <v>-0.2531601344202333</v>
       </c>
       <c r="D28">
-        <v>-0.005622654163366732</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01743326091435728</v>
+      </c>
+      <c r="E28">
+        <v>0.0743841454587208</v>
+      </c>
+      <c r="F28">
+        <v>-0.001242010993511242</v>
+      </c>
+      <c r="G28">
+        <v>-0.06810463417887734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01010195275135061</v>
+        <v>0.007454884319649666</v>
       </c>
       <c r="C29">
-        <v>0.03124497206708707</v>
+        <v>0.02901829432429567</v>
       </c>
       <c r="D29">
-        <v>0.01608392486741458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.04669544420052198</v>
+      </c>
+      <c r="E29">
+        <v>0.07578281272455903</v>
+      </c>
+      <c r="F29">
+        <v>-0.0064560066115027</v>
+      </c>
+      <c r="G29">
+        <v>-0.03663507237640738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04251279921593188</v>
+        <v>0.04279437273295709</v>
       </c>
       <c r="C30">
-        <v>0.04620593699965835</v>
+        <v>0.05633917332324037</v>
       </c>
       <c r="D30">
-        <v>0.1052749193167864</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1374207504593312</v>
+      </c>
+      <c r="E30">
+        <v>0.09769368666374348</v>
+      </c>
+      <c r="F30">
+        <v>0.003205755404510732</v>
+      </c>
+      <c r="G30">
+        <v>0.02410706953859814</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06766129671755981</v>
+        <v>0.06311362229857523</v>
       </c>
       <c r="C31">
-        <v>0.05672766042556254</v>
+        <v>0.06676541793497499</v>
       </c>
       <c r="D31">
-        <v>-0.008243967951313325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01668574008789165</v>
+      </c>
+      <c r="E31">
+        <v>0.0747161964704524</v>
+      </c>
+      <c r="F31">
+        <v>-0.04585014327150621</v>
+      </c>
+      <c r="G31">
+        <v>-0.02975152585078558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003384598042148853</v>
+        <v>0.004641585364805461</v>
       </c>
       <c r="C32">
-        <v>0.03229827267430327</v>
+        <v>0.03146991582819282</v>
       </c>
       <c r="D32">
-        <v>0.0430896606335126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0604932243287044</v>
+      </c>
+      <c r="E32">
+        <v>0.1116128805076008</v>
+      </c>
+      <c r="F32">
+        <v>0.01905619947204445</v>
+      </c>
+      <c r="G32">
+        <v>-0.05398241204600099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03542836057246714</v>
+        <v>0.02906810876872287</v>
       </c>
       <c r="C33">
-        <v>0.05859651215047497</v>
+        <v>0.05226292579988758</v>
       </c>
       <c r="D33">
-        <v>0.07721122307410314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1041624701906612</v>
+      </c>
+      <c r="E33">
+        <v>0.09871729870893248</v>
+      </c>
+      <c r="F33">
+        <v>-0.02092931029922709</v>
+      </c>
+      <c r="G33">
+        <v>-0.03427661291997314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04403327955174806</v>
+        <v>0.03848011080447725</v>
       </c>
       <c r="C34">
-        <v>0.06994100975715165</v>
+        <v>0.06596133231645614</v>
       </c>
       <c r="D34">
-        <v>0.04253525288800201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05247520037679555</v>
+      </c>
+      <c r="E34">
+        <v>0.02963565939226025</v>
+      </c>
+      <c r="F34">
+        <v>-0.002105502489352246</v>
+      </c>
+      <c r="G34">
+        <v>-0.05055824306844513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>4.233504405410455e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0005845047711785054</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0005497236221156379</v>
+      </c>
+      <c r="E35">
+        <v>-0.0007215216536982186</v>
+      </c>
+      <c r="F35">
+        <v>0.00015656320157952</v>
+      </c>
+      <c r="G35">
+        <v>1.827758022628169e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02413231889889455</v>
+        <v>0.01955856416560589</v>
       </c>
       <c r="C36">
-        <v>0.02210008012804762</v>
+        <v>0.01755627399359704</v>
       </c>
       <c r="D36">
-        <v>0.02244526356318559</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.05068088660350138</v>
+      </c>
+      <c r="E36">
+        <v>0.06989764009374197</v>
+      </c>
+      <c r="F36">
+        <v>-0.004533616101592064</v>
+      </c>
+      <c r="G36">
+        <v>-0.02877981877728747</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03386357458202542</v>
+        <v>0.02499762835328859</v>
       </c>
       <c r="C38">
-        <v>0.03852675975029271</v>
+        <v>0.02905769634149469</v>
       </c>
       <c r="D38">
-        <v>0.009416891632758084</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0428158492096793</v>
+      </c>
+      <c r="E38">
+        <v>0.05630240288452498</v>
+      </c>
+      <c r="F38">
+        <v>-0.006389167358575734</v>
+      </c>
+      <c r="G38">
+        <v>0.01402279318496475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.05162350309378535</v>
+        <v>0.04383540846085072</v>
       </c>
       <c r="C39">
-        <v>0.0660619561109526</v>
+        <v>0.06464815823765901</v>
       </c>
       <c r="D39">
-        <v>0.04731605156273592</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07771733288804381</v>
+      </c>
+      <c r="E39">
+        <v>0.05520062721721954</v>
+      </c>
+      <c r="F39">
+        <v>0.01907526310117976</v>
+      </c>
+      <c r="G39">
+        <v>-0.0282732187581401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01150072542688226</v>
+        <v>0.01459453826142697</v>
       </c>
       <c r="C40">
-        <v>0.05461557068797866</v>
+        <v>0.04083490702817839</v>
       </c>
       <c r="D40">
-        <v>0.02410786188014146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0555677329684257</v>
+      </c>
+      <c r="E40">
+        <v>0.1227974615514991</v>
+      </c>
+      <c r="F40">
+        <v>-0.04041838967959325</v>
+      </c>
+      <c r="G40">
+        <v>0.0008007471653186652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02645664310787592</v>
+        <v>0.02161885995807532</v>
       </c>
       <c r="C41">
-        <v>0.01611145930843029</v>
+        <v>0.01175801637672631</v>
       </c>
       <c r="D41">
-        <v>0.01859248170641866</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03295898243515236</v>
+      </c>
+      <c r="E41">
+        <v>0.07537484839876109</v>
+      </c>
+      <c r="F41">
+        <v>-0.005301269977615999</v>
+      </c>
+      <c r="G41">
+        <v>-0.02169335955933211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04732379313610968</v>
+        <v>0.03215652834456545</v>
       </c>
       <c r="C43">
-        <v>0.03748539480694033</v>
+        <v>0.02579807232065393</v>
       </c>
       <c r="D43">
-        <v>0.04102931589900492</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0629745362515248</v>
+      </c>
+      <c r="E43">
+        <v>0.08424689322205699</v>
+      </c>
+      <c r="F43">
+        <v>-0.03042216532183624</v>
+      </c>
+      <c r="G43">
+        <v>-0.03289115202719776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01656470879601246</v>
+        <v>0.01854505663068845</v>
       </c>
       <c r="C44">
-        <v>0.06706021149446603</v>
+        <v>0.04861281146560873</v>
       </c>
       <c r="D44">
-        <v>0.02187191008833724</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05954171864178137</v>
+      </c>
+      <c r="E44">
+        <v>0.1061213002491765</v>
+      </c>
+      <c r="F44">
+        <v>0.01131469776428134</v>
+      </c>
+      <c r="G44">
+        <v>-0.02341876628921759</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01581380078038095</v>
+        <v>0.01416557420643186</v>
       </c>
       <c r="C46">
-        <v>0.02994748605190698</v>
+        <v>0.03156326985579481</v>
       </c>
       <c r="D46">
-        <v>0.009867993140922349</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.04122051258464927</v>
+      </c>
+      <c r="E46">
+        <v>0.08608483643446488</v>
+      </c>
+      <c r="F46">
+        <v>0.009702790066043472</v>
+      </c>
+      <c r="G46">
+        <v>-0.05718276217006672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09361806608597487</v>
+        <v>0.09342734941580552</v>
       </c>
       <c r="C47">
-        <v>0.08023401477565423</v>
+        <v>0.08752214959437804</v>
       </c>
       <c r="D47">
-        <v>-0.0241641817821215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00130160145614785</v>
+      </c>
+      <c r="E47">
+        <v>0.05946605095930942</v>
+      </c>
+      <c r="F47">
+        <v>-0.03028275699366283</v>
+      </c>
+      <c r="G47">
+        <v>-0.06276482598134062</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02717661137910017</v>
+        <v>0.02176508826174526</v>
       </c>
       <c r="C48">
-        <v>0.01826043715370656</v>
+        <v>0.01961636980362749</v>
       </c>
       <c r="D48">
-        <v>0.005078587147560572</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0400149376772333</v>
+      </c>
+      <c r="E48">
+        <v>0.08585122258946093</v>
+      </c>
+      <c r="F48">
+        <v>0.001337250818734666</v>
+      </c>
+      <c r="G48">
+        <v>-0.03783728312571701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08690595229929599</v>
+        <v>0.07390465546225437</v>
       </c>
       <c r="C50">
-        <v>0.09840996073008611</v>
+        <v>0.08132110429823641</v>
       </c>
       <c r="D50">
-        <v>-0.01854494953617913</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02335208034025535</v>
+      </c>
+      <c r="E50">
+        <v>0.08042617669817333</v>
+      </c>
+      <c r="F50">
+        <v>-0.0507136949777666</v>
+      </c>
+      <c r="G50">
+        <v>-0.01448218337515729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01657484690821827</v>
+        <v>0.01280566670345806</v>
       </c>
       <c r="C51">
-        <v>0.05210412063502929</v>
+        <v>0.03128663602114762</v>
       </c>
       <c r="D51">
-        <v>0.07468136181841455</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08233167412761039</v>
+      </c>
+      <c r="E51">
+        <v>0.06471396891356422</v>
+      </c>
+      <c r="F51">
+        <v>0.01016334308750714</v>
+      </c>
+      <c r="G51">
+        <v>-0.004628838734627089</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.0832713656187607</v>
+        <v>0.09771902219436976</v>
       </c>
       <c r="C53">
-        <v>0.08524052736628561</v>
+        <v>0.09253783243809437</v>
       </c>
       <c r="D53">
-        <v>-0.05125588048105553</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04188823988007334</v>
+      </c>
+      <c r="E53">
+        <v>0.0916700335929882</v>
+      </c>
+      <c r="F53">
+        <v>-0.02964139114453863</v>
+      </c>
+      <c r="G53">
+        <v>-0.07856441744844329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0429286580909646</v>
+        <v>0.03294226603598279</v>
       </c>
       <c r="C54">
-        <v>0.03904276227590012</v>
+        <v>0.03502018036508131</v>
       </c>
       <c r="D54">
-        <v>0.03079821206755296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.05792164699486651</v>
+      </c>
+      <c r="E54">
+        <v>0.07779705668279661</v>
+      </c>
+      <c r="F54">
+        <v>0.005069232144151204</v>
+      </c>
+      <c r="G54">
+        <v>-0.03420060861398039</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08500555909716073</v>
+        <v>0.09262363670988544</v>
       </c>
       <c r="C55">
-        <v>0.06415984492383407</v>
+        <v>0.07494448236001122</v>
       </c>
       <c r="D55">
-        <v>-0.04774170617798069</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.040969728800838</v>
+      </c>
+      <c r="E55">
+        <v>0.05311493682359127</v>
+      </c>
+      <c r="F55">
+        <v>-0.03437912404301841</v>
+      </c>
+      <c r="G55">
+        <v>-0.03889034089764594</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1445134403473275</v>
+        <v>0.1494063061598726</v>
       </c>
       <c r="C56">
-        <v>0.09297756930429951</v>
+        <v>0.1097949800054635</v>
       </c>
       <c r="D56">
-        <v>-0.05459559812021427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05025711855979271</v>
+      </c>
+      <c r="E56">
+        <v>0.04877262840018736</v>
+      </c>
+      <c r="F56">
+        <v>-0.02802010944236554</v>
+      </c>
+      <c r="G56">
+        <v>-0.05540076798910079</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05298857791626562</v>
+        <v>0.04132545490812497</v>
       </c>
       <c r="C58">
-        <v>0.01994318944743357</v>
+        <v>0.02455783099058167</v>
       </c>
       <c r="D58">
-        <v>0.2931567729855249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.310154871349002</v>
+      </c>
+      <c r="E58">
+        <v>0.3056909619198365</v>
+      </c>
+      <c r="F58">
+        <v>-0.1202658699561508</v>
+      </c>
+      <c r="G58">
+        <v>0.4765935541295044</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1355739474635369</v>
+        <v>0.1515653761827307</v>
       </c>
       <c r="C59">
-        <v>-0.1987086914657014</v>
+        <v>-0.1865825315863906</v>
       </c>
       <c r="D59">
-        <v>0.03820658693477113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0394791496858703</v>
+      </c>
+      <c r="E59">
+        <v>0.02899222057004162</v>
+      </c>
+      <c r="F59">
+        <v>0.03167725561902751</v>
+      </c>
+      <c r="G59">
+        <v>0.01238106005945303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2709740775040344</v>
+        <v>0.2496268936074744</v>
       </c>
       <c r="C60">
-        <v>0.1008482514685608</v>
+        <v>0.09403728073412854</v>
       </c>
       <c r="D60">
-        <v>0.223768287793682</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2149773456349451</v>
+      </c>
+      <c r="E60">
+        <v>-0.2857792920229901</v>
+      </c>
+      <c r="F60">
+        <v>-0.1092208587999747</v>
+      </c>
+      <c r="G60">
+        <v>0.03109752354976965</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.05073220366450305</v>
+        <v>0.04556542610222107</v>
       </c>
       <c r="C61">
-        <v>0.0588332313249397</v>
+        <v>0.05843084690693767</v>
       </c>
       <c r="D61">
-        <v>0.05071818470057295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.06749165940051695</v>
+      </c>
+      <c r="E61">
+        <v>0.05609325595610202</v>
+      </c>
+      <c r="F61">
+        <v>5.627005456292451e-05</v>
+      </c>
+      <c r="G61">
+        <v>-0.04431540861095432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01804644872792331</v>
+        <v>0.01781357304413192</v>
       </c>
       <c r="C63">
-        <v>0.03759511105089942</v>
+        <v>0.03279844597618953</v>
       </c>
       <c r="D63">
-        <v>0.009260235627542052</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.04477310068575628</v>
+      </c>
+      <c r="E63">
+        <v>0.07773652870320802</v>
+      </c>
+      <c r="F63">
+        <v>-0.02387192748173899</v>
+      </c>
+      <c r="G63">
+        <v>-0.01719089811248781</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05566614288070725</v>
+        <v>0.05856587894394071</v>
       </c>
       <c r="C64">
-        <v>0.05490541484291594</v>
+        <v>0.06621796047730956</v>
       </c>
       <c r="D64">
-        <v>0.03267897129162921</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03386481885968783</v>
+      </c>
+      <c r="E64">
+        <v>0.04806154898649122</v>
+      </c>
+      <c r="F64">
+        <v>0.01927403035437142</v>
+      </c>
+      <c r="G64">
+        <v>-0.07428500554366377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07095008851847195</v>
+        <v>0.05917506357870741</v>
       </c>
       <c r="C65">
-        <v>0.02833135058187115</v>
+        <v>0.02482651412772583</v>
       </c>
       <c r="D65">
-        <v>0.06635632468848704</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1005484251664363</v>
+      </c>
+      <c r="E65">
+        <v>0.04834574480220342</v>
+      </c>
+      <c r="F65">
+        <v>-0.02611344501972774</v>
+      </c>
+      <c r="G65">
+        <v>0.0275507487563924</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05823947049925871</v>
+        <v>0.05178049720632642</v>
       </c>
       <c r="C66">
-        <v>0.08069097382140035</v>
+        <v>0.07745088584507193</v>
       </c>
       <c r="D66">
-        <v>0.06807257153738466</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09864816224433846</v>
+      </c>
+      <c r="E66">
+        <v>0.06768197513385424</v>
+      </c>
+      <c r="F66">
+        <v>-0.005791787186945477</v>
+      </c>
+      <c r="G66">
+        <v>-0.02451592103302702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05384947216219262</v>
+        <v>0.04385647793767748</v>
       </c>
       <c r="C67">
-        <v>0.03814731661850528</v>
+        <v>0.03213809891767595</v>
       </c>
       <c r="D67">
-        <v>-0.005024403393105788</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01727027460794495</v>
+      </c>
+      <c r="E67">
+        <v>0.02819653428382174</v>
+      </c>
+      <c r="F67">
+        <v>-0.008033981925894648</v>
+      </c>
+      <c r="G67">
+        <v>0.005216225692075974</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1440302277041311</v>
+        <v>0.1612646452218579</v>
       </c>
       <c r="C68">
-        <v>-0.2758498525435145</v>
+        <v>-0.2342225761650802</v>
       </c>
       <c r="D68">
-        <v>-0.01500198652709273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005347806126251037</v>
+      </c>
+      <c r="E68">
+        <v>0.05498168458670898</v>
+      </c>
+      <c r="F68">
+        <v>-0.0249977126588498</v>
+      </c>
+      <c r="G68">
+        <v>0.01612858527356285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09449035223201169</v>
+        <v>0.08878040953471103</v>
       </c>
       <c r="C69">
-        <v>0.08996789774330156</v>
+        <v>0.09896147126079133</v>
       </c>
       <c r="D69">
-        <v>-0.02464296179112485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00995815628596745</v>
+      </c>
+      <c r="E69">
+        <v>0.06436500397052737</v>
+      </c>
+      <c r="F69">
+        <v>-0.01104439163467989</v>
+      </c>
+      <c r="G69">
+        <v>-0.05949075821551961</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1300015541525205</v>
+        <v>0.1550199884701369</v>
       </c>
       <c r="C71">
-        <v>-0.246264795148615</v>
+        <v>-0.2327260501482883</v>
       </c>
       <c r="D71">
-        <v>0.02455776770804859</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01920953663066224</v>
+      </c>
+      <c r="E71">
+        <v>0.06689548821979341</v>
+      </c>
+      <c r="F71">
+        <v>-0.02995629955618098</v>
+      </c>
+      <c r="G71">
+        <v>-0.04934819729735092</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1011990867255644</v>
+        <v>0.1058572728114014</v>
       </c>
       <c r="C72">
-        <v>0.05864167453722154</v>
+        <v>0.05638012611829755</v>
       </c>
       <c r="D72">
-        <v>0.04034841861218492</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06603422890560209</v>
+      </c>
+      <c r="E72">
+        <v>0.03158937409654965</v>
+      </c>
+      <c r="F72">
+        <v>-0.03499587589150523</v>
+      </c>
+      <c r="G72">
+        <v>-0.05443259967339809</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3431868552507641</v>
+        <v>0.2986440301393972</v>
       </c>
       <c r="C73">
-        <v>0.04740425989926907</v>
+        <v>0.06183047404368539</v>
       </c>
       <c r="D73">
-        <v>0.4962195054920143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4225400911865306</v>
+      </c>
+      <c r="E73">
+        <v>-0.5758390203402601</v>
+      </c>
+      <c r="F73">
+        <v>-0.1155536654805954</v>
+      </c>
+      <c r="G73">
+        <v>0.03603684528303246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1008072908333209</v>
+        <v>0.106894634661664</v>
       </c>
       <c r="C74">
-        <v>0.09848442525778078</v>
+        <v>0.09506656750963439</v>
       </c>
       <c r="D74">
-        <v>-0.02937872176001499</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03368641626706501</v>
+      </c>
+      <c r="E74">
+        <v>0.06496206399869843</v>
+      </c>
+      <c r="F74">
+        <v>-0.04789099891691585</v>
+      </c>
+      <c r="G74">
+        <v>-0.03376621024538496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2498569447168829</v>
+        <v>0.2528654378536673</v>
       </c>
       <c r="C75">
-        <v>0.105563532349856</v>
+        <v>0.1340515220041434</v>
       </c>
       <c r="D75">
-        <v>-0.1568936989886986</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1543893369304405</v>
+      </c>
+      <c r="E75">
+        <v>0.03117009858224595</v>
+      </c>
+      <c r="F75">
+        <v>-6.144332907859235e-05</v>
+      </c>
+      <c r="G75">
+        <v>-0.05148933453432934</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1160816824331269</v>
+        <v>0.1290785256512637</v>
       </c>
       <c r="C76">
-        <v>0.08940132222117678</v>
+        <v>0.09773221864955645</v>
       </c>
       <c r="D76">
-        <v>-0.06891163106778604</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06224500570042549</v>
+      </c>
+      <c r="E76">
+        <v>0.09488990474033153</v>
+      </c>
+      <c r="F76">
+        <v>-0.009192355450852634</v>
+      </c>
+      <c r="G76">
+        <v>-0.05295745214607284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08550268349141445</v>
+        <v>0.06760544243865603</v>
       </c>
       <c r="C77">
-        <v>0.04279083844776126</v>
+        <v>0.0632051182092709</v>
       </c>
       <c r="D77">
-        <v>0.07818461969766742</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.09897893428148569</v>
+      </c>
+      <c r="E77">
+        <v>0.1191549074297779</v>
+      </c>
+      <c r="F77">
+        <v>0.2428511539155924</v>
+      </c>
+      <c r="G77">
+        <v>0.1105688045394602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04469778804228335</v>
+        <v>0.04593027846524496</v>
       </c>
       <c r="C78">
-        <v>0.04880876372853616</v>
+        <v>0.05831371185276341</v>
       </c>
       <c r="D78">
-        <v>0.06961478853693771</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.09877293598009976</v>
+      </c>
+      <c r="E78">
+        <v>0.06660789434056748</v>
+      </c>
+      <c r="F78">
+        <v>0.0001544708136168686</v>
+      </c>
+      <c r="G78">
+        <v>-0.0346511055670136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001690543164188864</v>
+        <v>0.03756686970089533</v>
       </c>
       <c r="C79">
-        <v>-0.0009203942442913355</v>
+        <v>0.05762250085937494</v>
       </c>
       <c r="D79">
-        <v>0.007524415853814432</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08102100174443348</v>
+      </c>
+      <c r="E79">
+        <v>0.09094562981272758</v>
+      </c>
+      <c r="F79">
+        <v>-0.04892499155276379</v>
+      </c>
+      <c r="G79">
+        <v>-0.3005325419213526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03435453190095566</v>
+        <v>0.02866293615450788</v>
       </c>
       <c r="C80">
-        <v>0.04603118133174416</v>
+        <v>0.04670747065018265</v>
       </c>
       <c r="D80">
-        <v>0.03594661381498459</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04068115007359879</v>
+      </c>
+      <c r="E80">
+        <v>0.01715943216845375</v>
+      </c>
+      <c r="F80">
+        <v>0.05089597928588351</v>
+      </c>
+      <c r="G80">
+        <v>0.01365147109068336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1492612744626111</v>
+        <v>0.1427394493961006</v>
       </c>
       <c r="C81">
-        <v>0.07895595514506554</v>
+        <v>0.097470484423044</v>
       </c>
       <c r="D81">
-        <v>-0.1288226502982992</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.119001060628282</v>
+      </c>
+      <c r="E81">
+        <v>0.07622476060969462</v>
+      </c>
+      <c r="F81">
+        <v>-0.007850097120722547</v>
+      </c>
+      <c r="G81">
+        <v>-0.04502670738869265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2268291129119269</v>
+        <v>0.2410076351090189</v>
       </c>
       <c r="C82">
-        <v>0.1281413459602344</v>
+        <v>0.1857948838755352</v>
       </c>
       <c r="D82">
-        <v>-0.1916732042510607</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2415457033490437</v>
+      </c>
+      <c r="E82">
+        <v>-0.08408284566750492</v>
+      </c>
+      <c r="F82">
+        <v>0.04204892041661166</v>
+      </c>
+      <c r="G82">
+        <v>-0.3485429580879074</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04066801525537217</v>
+        <v>0.02695339046989927</v>
       </c>
       <c r="C83">
-        <v>0.04335058290915748</v>
+        <v>0.05000848569066909</v>
       </c>
       <c r="D83">
-        <v>0.05643127162042533</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03878278422883984</v>
+      </c>
+      <c r="E83">
+        <v>0.02227336566563102</v>
+      </c>
+      <c r="F83">
+        <v>0.02256119004430877</v>
+      </c>
+      <c r="G83">
+        <v>0.003865797640524121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>3.191273080926709e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002542001028520215</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0007831752585192737</v>
+      </c>
+      <c r="E84">
+        <v>0.008832813787413721</v>
+      </c>
+      <c r="F84">
+        <v>-0.002392546295317379</v>
+      </c>
+      <c r="G84">
+        <v>0.008713381504578373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1928620166882566</v>
+        <v>0.1827738569949491</v>
       </c>
       <c r="C85">
-        <v>0.09535229444725851</v>
+        <v>0.1119599363127285</v>
       </c>
       <c r="D85">
-        <v>-0.1454021554635115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1267927317595577</v>
+      </c>
+      <c r="E85">
+        <v>0.01483095616647679</v>
+      </c>
+      <c r="F85">
+        <v>-0.04386765556519114</v>
+      </c>
+      <c r="G85">
+        <v>-0.1018499990205917</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01461146030570916</v>
+        <v>0.01707347790217296</v>
       </c>
       <c r="C86">
-        <v>0.0434915716478979</v>
+        <v>0.02366907048049014</v>
       </c>
       <c r="D86">
-        <v>0.1002248355030758</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.09781102765913434</v>
+      </c>
+      <c r="E86">
+        <v>0.07564267029810133</v>
+      </c>
+      <c r="F86">
+        <v>0.01270091642124437</v>
+      </c>
+      <c r="G86">
+        <v>-0.0379800020011884</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03429160206946369</v>
+        <v>0.03387579895852341</v>
       </c>
       <c r="C87">
-        <v>0.005619993203470409</v>
+        <v>0.01887570485132797</v>
       </c>
       <c r="D87">
-        <v>0.09313110092086375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1158399046826069</v>
+      </c>
+      <c r="E87">
+        <v>0.1248684895273508</v>
+      </c>
+      <c r="F87">
+        <v>0.05542944230228896</v>
+      </c>
+      <c r="G87">
+        <v>0.03637814643089274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1027281186175175</v>
+        <v>0.08815003056861687</v>
       </c>
       <c r="C88">
-        <v>0.08352720052444533</v>
+        <v>0.06638605798325052</v>
       </c>
       <c r="D88">
-        <v>-0.02452099454464884</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01104443889544141</v>
+      </c>
+      <c r="E88">
+        <v>0.0605948085350694</v>
+      </c>
+      <c r="F88">
+        <v>-0.01743261773282516</v>
+      </c>
+      <c r="G88">
+        <v>-0.04542823019946959</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2035516668936002</v>
+        <v>0.2335039389050367</v>
       </c>
       <c r="C89">
-        <v>-0.3686113863807954</v>
+        <v>-0.3732508659410654</v>
       </c>
       <c r="D89">
-        <v>-0.03674498509634191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01086320800932892</v>
+      </c>
+      <c r="E89">
+        <v>0.09341031379123019</v>
+      </c>
+      <c r="F89">
+        <v>0.06588863943243575</v>
+      </c>
+      <c r="G89">
+        <v>-0.02108845636891468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1930388027379371</v>
+        <v>0.2111764935706471</v>
       </c>
       <c r="C90">
-        <v>-0.3232489642056963</v>
+        <v>-0.3002405886521614</v>
       </c>
       <c r="D90">
-        <v>-0.02775217884924687</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.006385163757482822</v>
+      </c>
+      <c r="E90">
+        <v>0.06414413038306324</v>
+      </c>
+      <c r="F90">
+        <v>-0.008464013719772642</v>
+      </c>
+      <c r="G90">
+        <v>0.01762184334390553</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1890096775149041</v>
+        <v>0.1839583505469233</v>
       </c>
       <c r="C91">
-        <v>0.1386830569047514</v>
+        <v>0.1511489833288148</v>
       </c>
       <c r="D91">
-        <v>-0.1332892864003928</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.12491162286433</v>
+      </c>
+      <c r="E91">
+        <v>0.05914727059231512</v>
+      </c>
+      <c r="F91">
+        <v>-0.01605382915070216</v>
+      </c>
+      <c r="G91">
+        <v>-0.04638083029802309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1785056694373319</v>
+        <v>0.1936257432949652</v>
       </c>
       <c r="C92">
-        <v>-0.2739407186097944</v>
+        <v>-0.2852056281291433</v>
       </c>
       <c r="D92">
-        <v>-0.003851960247865195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0005325844540875065</v>
+      </c>
+      <c r="E92">
+        <v>0.08952572440210536</v>
+      </c>
+      <c r="F92">
+        <v>0.03540819056345357</v>
+      </c>
+      <c r="G92">
+        <v>-0.03693604700775725</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2129438033754896</v>
+        <v>0.2296703696037781</v>
       </c>
       <c r="C93">
-        <v>-0.326920645351362</v>
+        <v>-0.3081556560539627</v>
       </c>
       <c r="D93">
-        <v>-0.02408605928590823</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01341450719638971</v>
+      </c>
+      <c r="E93">
+        <v>0.0395237355886652</v>
+      </c>
+      <c r="F93">
+        <v>-0.0236511564713308</v>
+      </c>
+      <c r="G93">
+        <v>-0.03293405713111672</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3603779558448506</v>
+        <v>0.3457194471063799</v>
       </c>
       <c r="C94">
-        <v>0.1599295542737232</v>
+        <v>0.1979926174975039</v>
       </c>
       <c r="D94">
-        <v>-0.4959080601872359</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4396753160883796</v>
+      </c>
+      <c r="E94">
+        <v>-0.03839232299129663</v>
+      </c>
+      <c r="F94">
+        <v>0.09002266940109017</v>
+      </c>
+      <c r="G94">
+        <v>0.6439502264531616</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.09375837264276435</v>
+        <v>0.06858200068999792</v>
       </c>
       <c r="C95">
-        <v>0.02943284962982856</v>
+        <v>0.0479116322254175</v>
       </c>
       <c r="D95">
-        <v>0.2099182291329506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1710409213908288</v>
+      </c>
+      <c r="E95">
+        <v>-0.06784198651416785</v>
+      </c>
+      <c r="F95">
+        <v>0.9093313854216287</v>
+      </c>
+      <c r="G95">
+        <v>-0.03772415414243935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1860974448528067</v>
+        <v>0.1825525048077267</v>
       </c>
       <c r="C98">
-        <v>0.0326656294955023</v>
+        <v>0.0522327790511856</v>
       </c>
       <c r="D98">
-        <v>0.233194266631761</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2130594225192409</v>
+      </c>
+      <c r="E98">
+        <v>-0.2106713723622352</v>
+      </c>
+      <c r="F98">
+        <v>-0.0904689117069538</v>
+      </c>
+      <c r="G98">
+        <v>-0.01291566232859537</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009960172358929214</v>
+        <v>0.007555291103492293</v>
       </c>
       <c r="C101">
-        <v>0.03068410889502091</v>
+        <v>0.02818986262466386</v>
       </c>
       <c r="D101">
-        <v>0.01601515570866651</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.04659336270153441</v>
+      </c>
+      <c r="E101">
+        <v>0.07669039064081828</v>
+      </c>
+      <c r="F101">
+        <v>-0.005447560058958016</v>
+      </c>
+      <c r="G101">
+        <v>-0.0371861454056469</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1173415854447578</v>
+        <v>0.1183443690076625</v>
       </c>
       <c r="C102">
-        <v>0.07172622798436705</v>
+        <v>0.1038786751134803</v>
       </c>
       <c r="D102">
-        <v>-0.05308718089252715</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06076621920292769</v>
+      </c>
+      <c r="E102">
+        <v>0.000352982399167546</v>
+      </c>
+      <c r="F102">
+        <v>0.02867299830734402</v>
+      </c>
+      <c r="G102">
+        <v>-0.05967037646447187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
